--- a/doc/Cases.xlsx
+++ b/doc/Cases.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="104">
   <si>
     <t>ID</t>
   </si>
@@ -310,6 +310,52 @@
   <si>
     <t xml:space="preserve">5. Комментарий добавляется к заявке. </t>
   </si>
+  <si>
+    <t>Авторизуемся в приложении, вводим правильно логин и пароль</t>
+  </si>
+  <si>
+    <t>1. Открываем приложение ВХОСПИСЕ.</t>
+  </si>
+  <si>
+    <t>1. Открывается страница для авторизации.</t>
+  </si>
+  <si>
+    <t>2. Вводим данные для авторизации: 
+Логин: login2
+Пароль: password2</t>
+  </si>
+  <si>
+    <t>2. Данные успешно введены.</t>
+  </si>
+  <si>
+    <t>3. Нажимаем на кнопку Войти.</t>
+  </si>
+  <si>
+    <t>3. Открывается главная страница приложения.</t>
+  </si>
+  <si>
+    <t>Авторизуемся в приложении, вводим правильно логин, пароль вводим неверный</t>
+  </si>
+  <si>
+    <t>2. Вводим данные для авторизации: 
+Логин: login2
+Пароль: password3</t>
+  </si>
+  <si>
+    <t>3. Выводится сообщение об ошибке: Неверный логин или пароль.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заходим в приложение ВХОСПИСЕ. Авторизуемся. 
+Логин: login2
+Пароль: password2
+</t>
+  </si>
+  <si>
+    <t>1. Переходим в Меню — нажимаем на кнопку О приложении.</t>
+  </si>
+  <si>
+    <t>1. Открывается страница с текстом: Политика конфиденциальности</t>
+  </si>
 </sst>
 </file>
 
@@ -420,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -469,6 +515,12 @@
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2631,14 +2683,24 @@
       <c r="AC57" s="8"/>
     </row>
     <row r="58">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
+      <c r="A58" s="9">
+        <v>16.0</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H58" s="17"/>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
@@ -2662,14 +2724,18 @@
       <c r="AC58" s="8"/>
     </row>
     <row r="59">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H59" s="14"/>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
@@ -2693,14 +2759,18 @@
       <c r="AC59" s="8"/>
     </row>
     <row r="60">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H60" s="12"/>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
@@ -2724,14 +2794,24 @@
       <c r="AC60" s="8"/>
     </row>
     <row r="61">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
+      <c r="A61" s="9">
+        <v>17.0</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="F61" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H61" s="17"/>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
@@ -2755,14 +2835,18 @@
       <c r="AC61" s="8"/>
     </row>
     <row r="62">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H62" s="14"/>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
@@ -2786,14 +2870,18 @@
       <c r="AC62" s="8"/>
     </row>
     <row r="63">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H63" s="12"/>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
@@ -2817,14 +2905,26 @@
       <c r="AC63" s="8"/>
     </row>
     <row r="64">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
+      <c r="A64" s="18">
+        <v>18.0</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H64" s="19"/>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
@@ -25725,276 +25825,14 @@
       <c r="AB802" s="8"/>
       <c r="AC802" s="8"/>
     </row>
-    <row r="803">
-      <c r="A803" s="8"/>
-      <c r="B803" s="8"/>
-      <c r="C803" s="8"/>
-      <c r="D803" s="8"/>
-      <c r="E803" s="8"/>
-      <c r="F803" s="8"/>
-      <c r="G803" s="8"/>
-      <c r="H803" s="8"/>
-      <c r="I803" s="8"/>
-      <c r="J803" s="8"/>
-      <c r="K803" s="8"/>
-      <c r="L803" s="8"/>
-      <c r="M803" s="8"/>
-      <c r="N803" s="8"/>
-      <c r="O803" s="8"/>
-      <c r="P803" s="8"/>
-      <c r="Q803" s="8"/>
-      <c r="R803" s="8"/>
-      <c r="S803" s="8"/>
-      <c r="T803" s="8"/>
-      <c r="U803" s="8"/>
-      <c r="V803" s="8"/>
-      <c r="W803" s="8"/>
-      <c r="X803" s="8"/>
-      <c r="Y803" s="8"/>
-      <c r="Z803" s="8"/>
-      <c r="AA803" s="8"/>
-      <c r="AB803" s="8"/>
-      <c r="AC803" s="8"/>
-    </row>
-    <row r="804">
-      <c r="A804" s="8"/>
-      <c r="B804" s="8"/>
-      <c r="C804" s="8"/>
-      <c r="D804" s="8"/>
-      <c r="E804" s="8"/>
-      <c r="F804" s="8"/>
-      <c r="G804" s="8"/>
-      <c r="H804" s="8"/>
-      <c r="I804" s="8"/>
-      <c r="J804" s="8"/>
-      <c r="K804" s="8"/>
-      <c r="L804" s="8"/>
-      <c r="M804" s="8"/>
-      <c r="N804" s="8"/>
-      <c r="O804" s="8"/>
-      <c r="P804" s="8"/>
-      <c r="Q804" s="8"/>
-      <c r="R804" s="8"/>
-      <c r="S804" s="8"/>
-      <c r="T804" s="8"/>
-      <c r="U804" s="8"/>
-      <c r="V804" s="8"/>
-      <c r="W804" s="8"/>
-      <c r="X804" s="8"/>
-      <c r="Y804" s="8"/>
-      <c r="Z804" s="8"/>
-      <c r="AA804" s="8"/>
-      <c r="AB804" s="8"/>
-      <c r="AC804" s="8"/>
-    </row>
-    <row r="805">
-      <c r="A805" s="8"/>
-      <c r="B805" s="8"/>
-      <c r="C805" s="8"/>
-      <c r="D805" s="8"/>
-      <c r="E805" s="8"/>
-      <c r="F805" s="8"/>
-      <c r="G805" s="8"/>
-      <c r="H805" s="8"/>
-      <c r="I805" s="8"/>
-      <c r="J805" s="8"/>
-      <c r="K805" s="8"/>
-      <c r="L805" s="8"/>
-      <c r="M805" s="8"/>
-      <c r="N805" s="8"/>
-      <c r="O805" s="8"/>
-      <c r="P805" s="8"/>
-      <c r="Q805" s="8"/>
-      <c r="R805" s="8"/>
-      <c r="S805" s="8"/>
-      <c r="T805" s="8"/>
-      <c r="U805" s="8"/>
-      <c r="V805" s="8"/>
-      <c r="W805" s="8"/>
-      <c r="X805" s="8"/>
-      <c r="Y805" s="8"/>
-      <c r="Z805" s="8"/>
-      <c r="AA805" s="8"/>
-      <c r="AB805" s="8"/>
-      <c r="AC805" s="8"/>
-    </row>
-    <row r="806">
-      <c r="A806" s="8"/>
-      <c r="B806" s="8"/>
-      <c r="C806" s="8"/>
-      <c r="D806" s="8"/>
-      <c r="E806" s="8"/>
-      <c r="F806" s="8"/>
-      <c r="G806" s="8"/>
-      <c r="H806" s="8"/>
-      <c r="I806" s="8"/>
-      <c r="J806" s="8"/>
-      <c r="K806" s="8"/>
-      <c r="L806" s="8"/>
-      <c r="M806" s="8"/>
-      <c r="N806" s="8"/>
-      <c r="O806" s="8"/>
-      <c r="P806" s="8"/>
-      <c r="Q806" s="8"/>
-      <c r="R806" s="8"/>
-      <c r="S806" s="8"/>
-      <c r="T806" s="8"/>
-      <c r="U806" s="8"/>
-      <c r="V806" s="8"/>
-      <c r="W806" s="8"/>
-      <c r="X806" s="8"/>
-      <c r="Y806" s="8"/>
-      <c r="Z806" s="8"/>
-      <c r="AA806" s="8"/>
-      <c r="AB806" s="8"/>
-      <c r="AC806" s="8"/>
-    </row>
-    <row r="807">
-      <c r="A807" s="8"/>
-      <c r="B807" s="8"/>
-      <c r="C807" s="8"/>
-      <c r="D807" s="8"/>
-      <c r="E807" s="8"/>
-      <c r="F807" s="8"/>
-      <c r="G807" s="8"/>
-      <c r="H807" s="8"/>
-      <c r="I807" s="8"/>
-      <c r="J807" s="8"/>
-      <c r="K807" s="8"/>
-      <c r="L807" s="8"/>
-      <c r="M807" s="8"/>
-      <c r="N807" s="8"/>
-      <c r="O807" s="8"/>
-      <c r="P807" s="8"/>
-      <c r="Q807" s="8"/>
-      <c r="R807" s="8"/>
-      <c r="S807" s="8"/>
-      <c r="T807" s="8"/>
-      <c r="U807" s="8"/>
-      <c r="V807" s="8"/>
-      <c r="W807" s="8"/>
-      <c r="X807" s="8"/>
-      <c r="Y807" s="8"/>
-      <c r="Z807" s="8"/>
-      <c r="AA807" s="8"/>
-      <c r="AB807" s="8"/>
-      <c r="AC807" s="8"/>
-    </row>
-    <row r="808">
-      <c r="A808" s="8"/>
-      <c r="B808" s="8"/>
-      <c r="C808" s="8"/>
-      <c r="D808" s="8"/>
-      <c r="E808" s="8"/>
-      <c r="F808" s="8"/>
-      <c r="G808" s="8"/>
-      <c r="H808" s="8"/>
-      <c r="I808" s="8"/>
-      <c r="J808" s="8"/>
-      <c r="K808" s="8"/>
-      <c r="L808" s="8"/>
-      <c r="M808" s="8"/>
-      <c r="N808" s="8"/>
-      <c r="O808" s="8"/>
-      <c r="P808" s="8"/>
-      <c r="Q808" s="8"/>
-      <c r="R808" s="8"/>
-      <c r="S808" s="8"/>
-      <c r="T808" s="8"/>
-      <c r="U808" s="8"/>
-      <c r="V808" s="8"/>
-      <c r="W808" s="8"/>
-      <c r="X808" s="8"/>
-      <c r="Y808" s="8"/>
-      <c r="Z808" s="8"/>
-      <c r="AA808" s="8"/>
-      <c r="AB808" s="8"/>
-      <c r="AC808" s="8"/>
-    </row>
-    <row r="809">
-      <c r="A809" s="8"/>
-      <c r="B809" s="8"/>
-      <c r="C809" s="8"/>
-      <c r="D809" s="8"/>
-      <c r="E809" s="8"/>
-      <c r="F809" s="8"/>
-      <c r="G809" s="8"/>
-      <c r="H809" s="8"/>
-      <c r="I809" s="8"/>
-      <c r="J809" s="8"/>
-      <c r="K809" s="8"/>
-      <c r="L809" s="8"/>
-      <c r="M809" s="8"/>
-      <c r="N809" s="8"/>
-      <c r="O809" s="8"/>
-      <c r="P809" s="8"/>
-      <c r="Q809" s="8"/>
-      <c r="R809" s="8"/>
-      <c r="S809" s="8"/>
-      <c r="T809" s="8"/>
-      <c r="U809" s="8"/>
-      <c r="V809" s="8"/>
-      <c r="W809" s="8"/>
-      <c r="X809" s="8"/>
-      <c r="Y809" s="8"/>
-      <c r="Z809" s="8"/>
-      <c r="AA809" s="8"/>
-      <c r="AB809" s="8"/>
-      <c r="AC809" s="8"/>
-    </row>
-    <row r="810">
-      <c r="A810" s="8"/>
-      <c r="B810" s="8"/>
-      <c r="C810" s="8"/>
-      <c r="D810" s="8"/>
-      <c r="E810" s="8"/>
-      <c r="F810" s="8"/>
-      <c r="G810" s="8"/>
-      <c r="H810" s="8"/>
-      <c r="I810" s="8"/>
-      <c r="J810" s="8"/>
-      <c r="K810" s="8"/>
-      <c r="L810" s="8"/>
-      <c r="M810" s="8"/>
-      <c r="N810" s="8"/>
-      <c r="O810" s="8"/>
-      <c r="P810" s="8"/>
-      <c r="Q810" s="8"/>
-      <c r="R810" s="8"/>
-      <c r="S810" s="8"/>
-      <c r="T810" s="8"/>
-      <c r="U810" s="8"/>
-      <c r="V810" s="8"/>
-      <c r="W810" s="8"/>
-      <c r="X810" s="8"/>
-      <c r="Y810" s="8"/>
-      <c r="Z810" s="8"/>
-      <c r="AA810" s="8"/>
-      <c r="AB810" s="8"/>
-      <c r="AC810" s="8"/>
-    </row>
   </sheetData>
-  <mergeCells count="90">
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A32"/>
+  <mergeCells count="102">
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
     <mergeCell ref="H4:H8"/>
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="H12:H14"/>
@@ -26002,49 +25840,6 @@
     <mergeCell ref="H20:H22"/>
     <mergeCell ref="H23:H26"/>
     <mergeCell ref="H27:H29"/>
-    <mergeCell ref="H30:H36"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="H43:H47"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="E53:E57"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="H53:H57"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -26052,12 +25847,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="E15:E19"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="A9:A11"/>
@@ -26065,9 +25854,84 @@
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="H30:H36"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="H43:H47"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H53:H57"/>
+    <mergeCell ref="H61:H63"/>
+    <mergeCell ref="H58:H60"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="D1:D2 D4 D9 D12 D15 D20 D23 D27 D30 D33 D37 D40 D43 D48 D53 D58:D810">
+    <dataValidation type="list" allowBlank="1" sqref="D1:D2 D4 D9 D12 D15 D20 D23 D27 D30 D33 D37 D40 D43 D48 D53 D58 D61 D64:D802">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
   </dataValidations>

--- a/doc/Cases.xlsx
+++ b/doc/Cases.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="108">
   <si>
     <t>ID</t>
   </si>
@@ -345,6 +345,18 @@
     <t>3. Выводится сообщение об ошибке: Неверный логин или пароль.</t>
   </si>
   <si>
+    <t>Авторизуемся в приложении, не вводим логин и пароль</t>
+  </si>
+  <si>
+    <t>2. Не вводим логин и пароль, нажимаем на кнопку Войти.</t>
+  </si>
+  <si>
+    <t>2. Выводится сообщение об ошибке: Неверный логин или пароль.</t>
+  </si>
+  <si>
+    <t>Информация О приложении</t>
+  </si>
+  <si>
     <t xml:space="preserve">Заходим в приложение ВХОСПИСЕ. Авторизуемся. 
 Логин: login2
 Пароль: password2
@@ -517,10 +529,10 @@
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2905,26 +2917,24 @@
       <c r="AC63" s="8"/>
     </row>
     <row r="64">
-      <c r="A64" s="18">
+      <c r="A64" s="9">
         <v>18.0</v>
       </c>
-      <c r="B64" s="18" t="s">
-        <v>84</v>
+      <c r="B64" s="9" t="s">
+        <v>101</v>
       </c>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18" t="s">
+      <c r="C64" s="9"/>
+      <c r="D64" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="18" t="s">
-        <v>101</v>
-      </c>
+      <c r="E64" s="9"/>
       <c r="F64" s="10" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
-      <c r="H64" s="19"/>
+      <c r="H64" s="18"/>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
@@ -2948,14 +2958,18 @@
       <c r="AC64" s="8"/>
     </row>
     <row r="65">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H65" s="18"/>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
@@ -2979,14 +2993,26 @@
       <c r="AC65" s="8"/>
     </row>
     <row r="66">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
+      <c r="A66" s="19">
+        <v>18.0</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H66" s="18"/>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
@@ -25825,8 +25851,39 @@
       <c r="AB802" s="8"/>
       <c r="AC802" s="8"/>
     </row>
+    <row r="803">
+      <c r="A803" s="8"/>
+      <c r="B803" s="8"/>
+      <c r="C803" s="8"/>
+      <c r="D803" s="8"/>
+      <c r="E803" s="8"/>
+      <c r="F803" s="8"/>
+      <c r="G803" s="8"/>
+      <c r="H803" s="8"/>
+      <c r="I803" s="8"/>
+      <c r="J803" s="8"/>
+      <c r="K803" s="8"/>
+      <c r="L803" s="8"/>
+      <c r="M803" s="8"/>
+      <c r="N803" s="8"/>
+      <c r="O803" s="8"/>
+      <c r="P803" s="8"/>
+      <c r="Q803" s="8"/>
+      <c r="R803" s="8"/>
+      <c r="S803" s="8"/>
+      <c r="T803" s="8"/>
+      <c r="U803" s="8"/>
+      <c r="V803" s="8"/>
+      <c r="W803" s="8"/>
+      <c r="X803" s="8"/>
+      <c r="Y803" s="8"/>
+      <c r="Z803" s="8"/>
+      <c r="AA803" s="8"/>
+      <c r="AB803" s="8"/>
+      <c r="AC803" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="107">
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="E4:E8"/>
     <mergeCell ref="D9:D11"/>
@@ -25879,16 +25936,21 @@
     <mergeCell ref="D48:D52"/>
     <mergeCell ref="E48:E52"/>
     <mergeCell ref="A53:A57"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
     <mergeCell ref="A58:A60"/>
     <mergeCell ref="B58:B60"/>
     <mergeCell ref="C58:C60"/>
     <mergeCell ref="D58:D60"/>
     <mergeCell ref="E58:E60"/>
-    <mergeCell ref="E61:E63"/>
     <mergeCell ref="A61:A63"/>
     <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:E63"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="C27:C29"/>
@@ -25915,6 +25977,11 @@
     <mergeCell ref="D37:D39"/>
     <mergeCell ref="E37:E39"/>
     <mergeCell ref="A40:A42"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H53:H57"/>
+    <mergeCell ref="H58:H60"/>
+    <mergeCell ref="H61:H63"/>
     <mergeCell ref="B40:B42"/>
     <mergeCell ref="C40:C42"/>
     <mergeCell ref="B43:B47"/>
@@ -25924,14 +25991,9 @@
     <mergeCell ref="H43:H47"/>
     <mergeCell ref="B53:B57"/>
     <mergeCell ref="C53:C57"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H53:H57"/>
-    <mergeCell ref="H61:H63"/>
-    <mergeCell ref="H58:H60"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="D1:D2 D4 D9 D12 D15 D20 D23 D27 D30 D33 D37 D40 D43 D48 D53 D58 D61 D64:D802">
+    <dataValidation type="list" allowBlank="1" sqref="D1:D2 D4 D9 D12 D15 D20 D23 D27 D30 D33 D37 D40 D43 D48 D53 D58 D61 D64 D66:D803">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
   </dataValidations>

--- a/doc/Cases.xlsx
+++ b/doc/Cases.xlsx
@@ -141,13 +141,13 @@
     <t>3. Новость удаляется из списка новостей.</t>
   </si>
   <si>
-    <t>Добавление новости со страницы Новостей. Время публикации меньше системного времени</t>
+    <t>Добавление новости без категории.</t>
   </si>
   <si>
-    <t xml:space="preserve">4. Выбираем категорию. Выбираем дату и время публикации. Время вводим меньше системного. Вводим описание. </t>
+    <t xml:space="preserve">4. Выбираем дату и время публикации. Время вводим меньше системного. Вводим описание. </t>
   </si>
   <si>
-    <t>5. Выводится сообщение об ошибке: Дата публикации не может быть меньше системной даты. Новость не добавляется.</t>
+    <t>5. Выводится сообщение - заполнить обязательные поля.</t>
   </si>
   <si>
     <t>Фильтрация списка новостей</t>
@@ -384,7 +384,7 @@
     </font>
     <font/>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,6 +425,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEAD1DC"/>
         <bgColor rgb="FFEAD1DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -478,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -509,6 +515,9 @@
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="2" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -533,6 +542,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -618,7 +630,7 @@
       <c r="A2" s="9">
         <v>1.0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="9"/>
@@ -628,13 +640,13 @@
       <c r="E2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="11"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -658,18 +670,18 @@
       <c r="AC2" s="8"/>
     </row>
     <row r="3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="12"/>
+      <c r="H3" s="13"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -706,13 +718,13 @@
       <c r="E4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="11"/>
+      <c r="H4" s="12"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -736,18 +748,18 @@
       <c r="AC4" s="8"/>
     </row>
     <row r="5">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="13" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="14"/>
+      <c r="H5" s="15"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -771,18 +783,18 @@
       <c r="AC5" s="8"/>
     </row>
     <row r="6">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="13" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="14"/>
+      <c r="H6" s="15"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -806,18 +818,18 @@
       <c r="AC6" s="8"/>
     </row>
     <row r="7">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="13" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="14"/>
+      <c r="H7" s="15"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -841,18 +853,18 @@
       <c r="AC7" s="8"/>
     </row>
     <row r="8">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="12"/>
+      <c r="H8" s="13"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -882,20 +894,20 @@
       <c r="B9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="16"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="17"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -919,18 +931,18 @@
       <c r="AC9" s="8"/>
     </row>
     <row r="10">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="13" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="14"/>
+      <c r="H10" s="15"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -954,18 +966,18 @@
       <c r="AC10" s="8"/>
     </row>
     <row r="11">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="H11" s="13"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -995,20 +1007,20 @@
       <c r="B12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="17"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -1032,18 +1044,18 @@
       <c r="AC12" s="8"/>
     </row>
     <row r="13">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="13" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="14"/>
+      <c r="H13" s="15"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -1067,18 +1079,18 @@
       <c r="AC13" s="8"/>
     </row>
     <row r="14">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="12"/>
+      <c r="H14" s="13"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -1115,13 +1127,13 @@
       <c r="E15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="17"/>
+      <c r="H15" s="18"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -1145,18 +1157,18 @@
       <c r="AC15" s="8"/>
     </row>
     <row r="16">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="13" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="14"/>
+      <c r="H16" s="15"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -1180,18 +1192,18 @@
       <c r="AC16" s="8"/>
     </row>
     <row r="17">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="13" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="14"/>
+      <c r="H17" s="15"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -1215,18 +1227,18 @@
       <c r="AC17" s="8"/>
     </row>
     <row r="18">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="13" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="14"/>
+      <c r="H18" s="15"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -1250,18 +1262,18 @@
       <c r="AC18" s="8"/>
     </row>
     <row r="19">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="12"/>
+      <c r="H19" s="13"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -1298,13 +1310,13 @@
       <c r="E20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="17"/>
+      <c r="H20" s="18"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -1328,18 +1340,18 @@
       <c r="AC20" s="8"/>
     </row>
     <row r="21">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="13" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H21" s="14"/>
+      <c r="H21" s="15"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -1363,18 +1375,18 @@
       <c r="AC21" s="8"/>
     </row>
     <row r="22">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="12"/>
+      <c r="H22" s="13"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -1411,13 +1423,13 @@
       <c r="E23" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="17"/>
+      <c r="H23" s="18"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -1441,18 +1453,18 @@
       <c r="AC23" s="8"/>
     </row>
     <row r="24">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="13" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H24" s="14"/>
+      <c r="H24" s="15"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
@@ -1476,18 +1488,18 @@
       <c r="AC24" s="8"/>
     </row>
     <row r="25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="13" t="s">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="14"/>
+      <c r="H25" s="15"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
@@ -1511,18 +1523,18 @@
       <c r="AC25" s="8"/>
     </row>
     <row r="26">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="12"/>
+      <c r="H26" s="13"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
@@ -1559,13 +1571,13 @@
       <c r="E27" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H27" s="17"/>
+      <c r="H27" s="18"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
@@ -1589,18 +1601,18 @@
       <c r="AC27" s="8"/>
     </row>
     <row r="28">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="13" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H28" s="14"/>
+      <c r="H28" s="15"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
@@ -1624,18 +1636,18 @@
       <c r="AC28" s="8"/>
     </row>
     <row r="29">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="13" t="s">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H29" s="12"/>
+      <c r="H29" s="13"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -1672,13 +1684,13 @@
       <c r="E30" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H30" s="17"/>
+      <c r="H30" s="18"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
@@ -1702,18 +1714,18 @@
       <c r="AC30" s="8"/>
     </row>
     <row r="31">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="13" t="s">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H31" s="14"/>
+      <c r="H31" s="15"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -1737,18 +1749,18 @@
       <c r="AC31" s="8"/>
     </row>
     <row r="32">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13" t="s">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="H32" s="14"/>
+      <c r="H32" s="15"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
@@ -1785,13 +1797,13 @@
       <c r="E33" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H33" s="14"/>
+      <c r="H33" s="15"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
@@ -1815,18 +1827,18 @@
       <c r="AC33" s="8"/>
     </row>
     <row r="34">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="13" t="s">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H34" s="14"/>
+      <c r="H34" s="15"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
@@ -1850,18 +1862,18 @@
       <c r="AC34" s="8"/>
     </row>
     <row r="35">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="13" t="s">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H35" s="14"/>
+      <c r="H35" s="15"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
@@ -1885,18 +1897,18 @@
       <c r="AC35" s="8"/>
     </row>
     <row r="36">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="13" t="s">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G36" s="13" t="s">
+      <c r="G36" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="H36" s="12"/>
+      <c r="H36" s="13"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
@@ -1933,13 +1945,13 @@
       <c r="E37" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H37" s="17"/>
+      <c r="H37" s="18"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
@@ -1963,18 +1975,18 @@
       <c r="AC37" s="8"/>
     </row>
     <row r="38">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="13" t="s">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="H38" s="14"/>
+      <c r="H38" s="15"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
@@ -1998,18 +2010,18 @@
       <c r="AC38" s="8"/>
     </row>
     <row r="39" ht="51.75" customHeight="1">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="13" t="s">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="G39" s="13" t="s">
+      <c r="G39" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="H39" s="12"/>
+      <c r="H39" s="13"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
@@ -2046,13 +2058,13 @@
       <c r="E40" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H40" s="17"/>
+      <c r="H40" s="18"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
@@ -2076,18 +2088,18 @@
       <c r="AC40" s="8"/>
     </row>
     <row r="41">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="13" t="s">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G41" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="H41" s="14"/>
+      <c r="H41" s="15"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
@@ -2111,18 +2123,18 @@
       <c r="AC41" s="8"/>
     </row>
     <row r="42" ht="39.75" customHeight="1">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="13" t="s">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="H42" s="12"/>
+      <c r="H42" s="13"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
@@ -2159,13 +2171,13 @@
       <c r="E43" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="G43" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H43" s="17"/>
+      <c r="H43" s="18"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
@@ -2189,18 +2201,18 @@
       <c r="AC43" s="8"/>
     </row>
     <row r="44">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="13" t="s">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="G44" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="H44" s="14"/>
+      <c r="H44" s="15"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
@@ -2224,18 +2236,18 @@
       <c r="AC44" s="8"/>
     </row>
     <row r="45">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="13" t="s">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="G45" s="13" t="s">
+      <c r="G45" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H45" s="14"/>
+      <c r="H45" s="15"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
@@ -2259,18 +2271,18 @@
       <c r="AC45" s="8"/>
     </row>
     <row r="46">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="13" t="s">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G46" s="13" t="s">
+      <c r="G46" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="H46" s="14"/>
+      <c r="H46" s="15"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
@@ -2294,18 +2306,18 @@
       <c r="AC46" s="8"/>
     </row>
     <row r="47">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="13" t="s">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G47" s="13" t="s">
+      <c r="G47" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="H47" s="12"/>
+      <c r="H47" s="13"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
@@ -2342,13 +2354,13 @@
       <c r="E48" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F48" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G48" s="10" t="s">
+      <c r="G48" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H48" s="17"/>
+      <c r="H48" s="18"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
@@ -2372,18 +2384,18 @@
       <c r="AC48" s="8"/>
     </row>
     <row r="49">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="13" t="s">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="G49" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="H49" s="14"/>
+      <c r="H49" s="15"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
@@ -2407,18 +2419,18 @@
       <c r="AC49" s="8"/>
     </row>
     <row r="50">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="13" t="s">
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G50" s="13" t="s">
+      <c r="G50" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H50" s="12"/>
+      <c r="H50" s="13"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
@@ -2442,18 +2454,18 @@
       <c r="AC50" s="8"/>
     </row>
     <row r="51">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="13" t="s">
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G51" s="13" t="s">
+      <c r="G51" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="H51" s="17"/>
+      <c r="H51" s="18"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
@@ -2477,18 +2489,18 @@
       <c r="AC51" s="8"/>
     </row>
     <row r="52">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="13" t="s">
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G52" s="13" t="s">
+      <c r="G52" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H52" s="12"/>
+      <c r="H52" s="13"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
@@ -2525,13 +2537,13 @@
       <c r="E53" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G53" s="10" t="s">
+      <c r="G53" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H53" s="17"/>
+      <c r="H53" s="18"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
@@ -2555,18 +2567,18 @@
       <c r="AC53" s="8"/>
     </row>
     <row r="54">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="13" t="s">
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="G54" s="10" t="s">
+      <c r="G54" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="H54" s="14"/>
+      <c r="H54" s="15"/>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
@@ -2590,18 +2602,18 @@
       <c r="AC54" s="8"/>
     </row>
     <row r="55">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="13" t="s">
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="G55" s="13" t="s">
+      <c r="G55" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H55" s="14"/>
+      <c r="H55" s="15"/>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
@@ -2625,18 +2637,18 @@
       <c r="AC55" s="8"/>
     </row>
     <row r="56">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="13" t="s">
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G56" s="13" t="s">
+      <c r="G56" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="H56" s="14"/>
+      <c r="H56" s="15"/>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
@@ -2660,18 +2672,18 @@
       <c r="AC56" s="8"/>
     </row>
     <row r="57">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="13" t="s">
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G57" s="13" t="s">
+      <c r="G57" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="H57" s="12"/>
+      <c r="H57" s="13"/>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
@@ -2698,7 +2710,7 @@
       <c r="A58" s="9">
         <v>16.0</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="10" t="s">
         <v>91</v>
       </c>
       <c r="C58" s="9"/>
@@ -2706,13 +2718,13 @@
         <v>16</v>
       </c>
       <c r="E58" s="9"/>
-      <c r="F58" s="10" t="s">
+      <c r="F58" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G58" s="10" t="s">
+      <c r="G58" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="H58" s="17"/>
+      <c r="H58" s="18"/>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
@@ -2736,18 +2748,18 @@
       <c r="AC58" s="8"/>
     </row>
     <row r="59">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="13" t="s">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="G59" s="10" t="s">
+      <c r="G59" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="H59" s="14"/>
+      <c r="H59" s="15"/>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
@@ -2771,18 +2783,18 @@
       <c r="AC59" s="8"/>
     </row>
     <row r="60">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="13" t="s">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G60" s="10" t="s">
+      <c r="G60" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="H60" s="12"/>
+      <c r="H60" s="13"/>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
@@ -2809,7 +2821,7 @@
       <c r="A61" s="9">
         <v>17.0</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C61" s="9"/>
@@ -2817,13 +2829,13 @@
         <v>16</v>
       </c>
       <c r="E61" s="9"/>
-      <c r="F61" s="10" t="s">
+      <c r="F61" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G61" s="10" t="s">
+      <c r="G61" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="H61" s="17"/>
+      <c r="H61" s="18"/>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
@@ -2847,18 +2859,18 @@
       <c r="AC61" s="8"/>
     </row>
     <row r="62">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="13" t="s">
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="G62" s="10" t="s">
+      <c r="G62" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="H62" s="14"/>
+      <c r="H62" s="15"/>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
@@ -2882,18 +2894,18 @@
       <c r="AC62" s="8"/>
     </row>
     <row r="63">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="13" t="s">
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G63" s="10" t="s">
+      <c r="G63" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="H63" s="12"/>
+      <c r="H63" s="13"/>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
@@ -2920,7 +2932,7 @@
       <c r="A64" s="9">
         <v>18.0</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C64" s="9"/>
@@ -2928,13 +2940,13 @@
         <v>16</v>
       </c>
       <c r="E64" s="9"/>
-      <c r="F64" s="10" t="s">
+      <c r="F64" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G64" s="10" t="s">
+      <c r="G64" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="H64" s="18"/>
+      <c r="H64" s="19"/>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
@@ -2958,18 +2970,18 @@
       <c r="AC64" s="8"/>
     </row>
     <row r="65">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="10" t="s">
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="G65" s="10" t="s">
+      <c r="G65" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="H65" s="18"/>
+      <c r="H65" s="19"/>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
@@ -2993,26 +3005,26 @@
       <c r="AC65" s="8"/>
     </row>
     <row r="66">
-      <c r="A66" s="19">
+      <c r="A66" s="20">
         <v>18.0</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19" t="s">
+      <c r="C66" s="20"/>
+      <c r="D66" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E66" s="19" t="s">
+      <c r="E66" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="F66" s="10" t="s">
+      <c r="F66" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="G66" s="10" t="s">
+      <c r="G66" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="H66" s="18"/>
+      <c r="H66" s="19"/>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
@@ -25938,17 +25950,17 @@
     <mergeCell ref="A53:A57"/>
     <mergeCell ref="C61:C63"/>
     <mergeCell ref="D61:D63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="D64:D65"/>
     <mergeCell ref="E64:E65"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
     <mergeCell ref="A58:A60"/>
     <mergeCell ref="B58:B60"/>
     <mergeCell ref="C58:C60"/>
     <mergeCell ref="D58:D60"/>
     <mergeCell ref="E58:E60"/>
-    <mergeCell ref="A61:A63"/>
     <mergeCell ref="B61:B63"/>
     <mergeCell ref="E61:E63"/>
     <mergeCell ref="A27:A29"/>

--- a/doc/Cases.xlsx
+++ b/doc/Cases.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="105">
   <si>
     <t>ID</t>
   </si>
@@ -210,19 +210,6 @@
     <t>3. Выводится окно с сообщением об ошибке: Заполните пустые поля. Заявка не создаётся.</t>
   </si>
   <si>
-    <t>Добавление заявки — время меньше системного</t>
-  </si>
-  <si>
-    <t>3. Вводим тему (1-50 символов)
-Выбираем исполнителя
-Выбираем дату
-Выбираем время меньше системной даты
-Вводим описание</t>
-  </si>
-  <si>
-    <t>3. Выводится сообщение об ошибке: Плановая дата не может быть меньше системной даты</t>
-  </si>
-  <si>
     <t>Добавление заявки без заполнения поля Исполнитель</t>
   </si>
   <si>
@@ -266,7 +253,7 @@
     <t>3. Статус заявки становится В работе. Заполняется поле исполнитель</t>
   </si>
   <si>
-    <t>Сбросить заявку со статусом В работе</t>
+    <t>Сброс заявки</t>
   </si>
   <si>
     <t>2. Выбираем заявку со статусом В работе. Нажимаем на заявку.</t>
@@ -1413,7 +1400,7 @@
       <c r="A23" s="9">
         <v>7.0</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="9"/>
@@ -1561,7 +1548,7 @@
       <c r="A27" s="9">
         <v>8.0</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C27" s="9"/>
@@ -1674,12 +1661,12 @@
       <c r="A30" s="9">
         <v>9.0</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>49</v>
@@ -1749,16 +1736,16 @@
       <c r="AC31" s="8"/>
     </row>
     <row r="32">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
       <c r="F32" s="14" t="s">
         <v>62</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H32" s="15"/>
       <c r="I32" s="8"/>
@@ -1784,26 +1771,18 @@
       <c r="AC32" s="8"/>
     </row>
     <row r="33">
-      <c r="A33" s="9">
-        <v>10.0</v>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="14" t="s">
+        <v>56</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>64</v>
+      <c r="G33" s="14" t="s">
+        <v>63</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H33" s="15"/>
+      <c r="H33" s="13"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
@@ -1827,18 +1806,26 @@
       <c r="AC33" s="8"/>
     </row>
     <row r="34">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="14" t="s">
-        <v>52</v>
+      <c r="A34" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
-      <c r="H34" s="15"/>
+      <c r="H34" s="18"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
@@ -1868,10 +1855,10 @@
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
       <c r="F35" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
-      <c r="G35" s="14" t="s">
-        <v>55</v>
+      <c r="G35" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" s="8"/>
@@ -1896,17 +1883,17 @@
       <c r="AB35" s="8"/>
       <c r="AC35" s="8"/>
     </row>
-    <row r="36">
+    <row r="36" ht="51.75" customHeight="1">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="14" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="8"/>
@@ -1935,15 +1922,15 @@
       <c r="A37" s="9">
         <v>11.0</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>67</v>
+      <c r="B37" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>50</v>
@@ -1981,10 +1968,10 @@
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H38" s="15"/>
       <c r="I38" s="8"/>
@@ -2009,7 +1996,7 @@
       <c r="AB38" s="8"/>
       <c r="AC38" s="8"/>
     </row>
-    <row r="39" ht="51.75" customHeight="1">
+    <row r="39" ht="39.75" customHeight="1">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -2048,15 +2035,15 @@
       <c r="A40" s="9">
         <v>12.0</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="10" t="s">
         <v>73</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>50</v>
@@ -2094,10 +2081,10 @@
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
       <c r="F41" s="14" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H41" s="15"/>
       <c r="I41" s="8"/>
@@ -2122,19 +2109,19 @@
       <c r="AB41" s="8"/>
       <c r="AC41" s="8"/>
     </row>
-    <row r="42" ht="39.75" customHeight="1">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
+    <row r="42">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
       <c r="F42" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
-      <c r="H42" s="13"/>
+      <c r="H42" s="15"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
@@ -2158,26 +2145,18 @@
       <c r="AC42" s="8"/>
     </row>
     <row r="43">
-      <c r="A43" s="9">
-        <v>13.0</v>
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="14" t="s">
+        <v>77</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>76</v>
+      <c r="G43" s="14" t="s">
+        <v>78</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H43" s="18"/>
+      <c r="H43" s="15"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
@@ -2201,18 +2180,18 @@
       <c r="AC43" s="8"/>
     </row>
     <row r="44">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
       <c r="F44" s="14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
-      <c r="G44" s="11" t="s">
-        <v>70</v>
+      <c r="G44" s="14" t="s">
+        <v>80</v>
       </c>
-      <c r="H44" s="15"/>
+      <c r="H44" s="13"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
@@ -2236,18 +2215,26 @@
       <c r="AC44" s="8"/>
     </row>
     <row r="45">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="14" t="s">
-        <v>78</v>
+      <c r="A45" s="9">
+        <v>13.0</v>
       </c>
-      <c r="G45" s="14" t="s">
-        <v>79</v>
+      <c r="B45" s="10" t="s">
+        <v>81</v>
       </c>
-      <c r="H45" s="15"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H45" s="18"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
@@ -2277,10 +2264,10 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="14" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
-      <c r="G46" s="14" t="s">
-        <v>81</v>
+      <c r="G46" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="H46" s="15"/>
       <c r="I46" s="8"/>
@@ -2306,16 +2293,16 @@
       <c r="AC46" s="8"/>
     </row>
     <row r="47">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
       <c r="F47" s="14" t="s">
         <v>82</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="8"/>
@@ -2341,24 +2328,16 @@
       <c r="AC47" s="8"/>
     </row>
     <row r="48">
-      <c r="A48" s="9">
-        <v>14.0</v>
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="14" t="s">
+        <v>77</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>51</v>
+      <c r="G48" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="H48" s="18"/>
       <c r="I48" s="8"/>
@@ -2384,18 +2363,18 @@
       <c r="AC48" s="8"/>
     </row>
     <row r="49">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
       <c r="F49" s="14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
-      <c r="G49" s="11" t="s">
-        <v>70</v>
+      <c r="G49" s="14" t="s">
+        <v>83</v>
       </c>
-      <c r="H49" s="15"/>
+      <c r="H49" s="13"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
@@ -2419,18 +2398,26 @@
       <c r="AC49" s="8"/>
     </row>
     <row r="50">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="14" t="s">
-        <v>85</v>
+      <c r="A50" s="9">
+        <v>14.0</v>
       </c>
-      <c r="G50" s="14" t="s">
-        <v>79</v>
+      <c r="B50" s="10" t="s">
+        <v>84</v>
       </c>
-      <c r="H50" s="13"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H50" s="18"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
@@ -2460,12 +2447,12 @@
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
-      <c r="G51" s="14" t="s">
-        <v>81</v>
+      <c r="G51" s="11" t="s">
+        <v>67</v>
       </c>
-      <c r="H51" s="18"/>
+      <c r="H51" s="15"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
@@ -2489,18 +2476,18 @@
       <c r="AC51" s="8"/>
     </row>
     <row r="52">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
       <c r="F52" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
-      <c r="H52" s="13"/>
+      <c r="H52" s="15"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
@@ -2524,26 +2511,18 @@
       <c r="AC52" s="8"/>
     </row>
     <row r="53">
-      <c r="A53" s="9">
-        <v>15.0</v>
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="14" t="s">
+        <v>77</v>
       </c>
-      <c r="B53" s="9" t="s">
-        <v>87</v>
+      <c r="G53" s="14" t="s">
+        <v>78</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H53" s="18"/>
+      <c r="H53" s="15"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
@@ -2567,18 +2546,18 @@
       <c r="AC53" s="8"/>
     </row>
     <row r="54">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
       <c r="F54" s="14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
-      <c r="G54" s="11" t="s">
-        <v>70</v>
+      <c r="G54" s="14" t="s">
+        <v>87</v>
       </c>
-      <c r="H54" s="15"/>
+      <c r="H54" s="13"/>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
@@ -2602,18 +2581,24 @@
       <c r="AC54" s="8"/>
     </row>
     <row r="55">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="14" t="s">
+      <c r="A55" s="9">
+        <v>15.0</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="9"/>
+      <c r="F55" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="G55" s="14" t="s">
-        <v>79</v>
+      <c r="G55" s="11" t="s">
+        <v>90</v>
       </c>
-      <c r="H55" s="15"/>
+      <c r="H55" s="18"/>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
@@ -2643,10 +2628,10 @@
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="14" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
-      <c r="G56" s="14" t="s">
-        <v>81</v>
+      <c r="G56" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="H56" s="15"/>
       <c r="I56" s="8"/>
@@ -2678,10 +2663,10 @@
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
       <c r="F57" s="14" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
-      <c r="G57" s="14" t="s">
-        <v>90</v>
+      <c r="G57" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="H57" s="13"/>
       <c r="I57" s="8"/>
@@ -2711,7 +2696,7 @@
         <v>16.0</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9" t="s">
@@ -2719,10 +2704,10 @@
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H58" s="18"/>
       <c r="I58" s="8"/>
@@ -2754,10 +2739,10 @@
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
       <c r="F59" s="14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H59" s="15"/>
       <c r="I59" s="8"/>
@@ -2789,7 +2774,7 @@
       <c r="D60" s="13"/>
       <c r="E60" s="13"/>
       <c r="F60" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G60" s="11" t="s">
         <v>97</v>
@@ -2830,12 +2815,12 @@
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
-      <c r="H61" s="18"/>
+      <c r="H61" s="19"/>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
@@ -2859,18 +2844,18 @@
       <c r="AC61" s="8"/>
     </row>
     <row r="62">
-      <c r="A62" s="15"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="14" t="s">
+      <c r="A62" s="13"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="11" t="s">
         <v>99</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
-      <c r="H62" s="15"/>
+      <c r="H62" s="19"/>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
@@ -2894,18 +2879,26 @@
       <c r="AC62" s="8"/>
     </row>
     <row r="63">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="14" t="s">
-        <v>96</v>
+      <c r="A63" s="20">
+        <v>18.0</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
-      <c r="H63" s="13"/>
+      <c r="H63" s="19"/>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
@@ -2929,24 +2922,14 @@
       <c r="AC63" s="8"/>
     </row>
     <row r="64">
-      <c r="A64" s="9">
-        <v>18.0</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E64" s="9"/>
-      <c r="F64" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H64" s="19"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
@@ -2970,18 +2953,14 @@
       <c r="AC64" s="8"/>
     </row>
     <row r="65">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="H65" s="19"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
@@ -3005,26 +2984,14 @@
       <c r="AC65" s="8"/>
     </row>
     <row r="66">
-      <c r="A66" s="20">
-        <v>18.0</v>
-      </c>
-      <c r="B66" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E66" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="H66" s="19"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
@@ -25801,101 +25768,8 @@
       <c r="AB800" s="8"/>
       <c r="AC800" s="8"/>
     </row>
-    <row r="801">
-      <c r="A801" s="8"/>
-      <c r="B801" s="8"/>
-      <c r="C801" s="8"/>
-      <c r="D801" s="8"/>
-      <c r="E801" s="8"/>
-      <c r="F801" s="8"/>
-      <c r="G801" s="8"/>
-      <c r="H801" s="8"/>
-      <c r="I801" s="8"/>
-      <c r="J801" s="8"/>
-      <c r="K801" s="8"/>
-      <c r="L801" s="8"/>
-      <c r="M801" s="8"/>
-      <c r="N801" s="8"/>
-      <c r="O801" s="8"/>
-      <c r="P801" s="8"/>
-      <c r="Q801" s="8"/>
-      <c r="R801" s="8"/>
-      <c r="S801" s="8"/>
-      <c r="T801" s="8"/>
-      <c r="U801" s="8"/>
-      <c r="V801" s="8"/>
-      <c r="W801" s="8"/>
-      <c r="X801" s="8"/>
-      <c r="Y801" s="8"/>
-      <c r="Z801" s="8"/>
-      <c r="AA801" s="8"/>
-      <c r="AB801" s="8"/>
-      <c r="AC801" s="8"/>
-    </row>
-    <row r="802">
-      <c r="A802" s="8"/>
-      <c r="B802" s="8"/>
-      <c r="C802" s="8"/>
-      <c r="D802" s="8"/>
-      <c r="E802" s="8"/>
-      <c r="F802" s="8"/>
-      <c r="G802" s="8"/>
-      <c r="H802" s="8"/>
-      <c r="I802" s="8"/>
-      <c r="J802" s="8"/>
-      <c r="K802" s="8"/>
-      <c r="L802" s="8"/>
-      <c r="M802" s="8"/>
-      <c r="N802" s="8"/>
-      <c r="O802" s="8"/>
-      <c r="P802" s="8"/>
-      <c r="Q802" s="8"/>
-      <c r="R802" s="8"/>
-      <c r="S802" s="8"/>
-      <c r="T802" s="8"/>
-      <c r="U802" s="8"/>
-      <c r="V802" s="8"/>
-      <c r="W802" s="8"/>
-      <c r="X802" s="8"/>
-      <c r="Y802" s="8"/>
-      <c r="Z802" s="8"/>
-      <c r="AA802" s="8"/>
-      <c r="AB802" s="8"/>
-      <c r="AC802" s="8"/>
-    </row>
-    <row r="803">
-      <c r="A803" s="8"/>
-      <c r="B803" s="8"/>
-      <c r="C803" s="8"/>
-      <c r="D803" s="8"/>
-      <c r="E803" s="8"/>
-      <c r="F803" s="8"/>
-      <c r="G803" s="8"/>
-      <c r="H803" s="8"/>
-      <c r="I803" s="8"/>
-      <c r="J803" s="8"/>
-      <c r="K803" s="8"/>
-      <c r="L803" s="8"/>
-      <c r="M803" s="8"/>
-      <c r="N803" s="8"/>
-      <c r="O803" s="8"/>
-      <c r="P803" s="8"/>
-      <c r="Q803" s="8"/>
-      <c r="R803" s="8"/>
-      <c r="S803" s="8"/>
-      <c r="T803" s="8"/>
-      <c r="U803" s="8"/>
-      <c r="V803" s="8"/>
-      <c r="W803" s="8"/>
-      <c r="X803" s="8"/>
-      <c r="Y803" s="8"/>
-      <c r="Z803" s="8"/>
-      <c r="AA803" s="8"/>
-      <c r="AB803" s="8"/>
-      <c r="AC803" s="8"/>
-    </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="102">
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="E4:E8"/>
     <mergeCell ref="D9:D11"/>
@@ -25939,73 +25813,68 @@
     <mergeCell ref="C23:C26"/>
     <mergeCell ref="D23:D26"/>
     <mergeCell ref="E23:E26"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="E53:E57"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="D50:D54"/>
+    <mergeCell ref="E50:E54"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="E45:E49"/>
+    <mergeCell ref="A50:A54"/>
     <mergeCell ref="C58:C60"/>
     <mergeCell ref="D58:D60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="B58:B60"/>
     <mergeCell ref="E58:E60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="E61:E63"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="C27:C29"/>
     <mergeCell ref="D27:D29"/>
     <mergeCell ref="E27:E29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="H30:H36"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
     <mergeCell ref="H37:H39"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E34:E36"/>
     <mergeCell ref="A37:A39"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="H50:H54"/>
+    <mergeCell ref="H55:H57"/>
+    <mergeCell ref="H58:H60"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H53:H57"/>
-    <mergeCell ref="H58:H60"/>
-    <mergeCell ref="H61:H63"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="H43:H47"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="D40:D44"/>
+    <mergeCell ref="E40:E44"/>
+    <mergeCell ref="H40:H44"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="C50:C54"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="D1:D2 D4 D9 D12 D15 D20 D23 D27 D30 D33 D37 D40 D43 D48 D53 D58 D61 D64 D66:D803">
+    <dataValidation type="list" allowBlank="1" sqref="D1:D2 D4 D9 D12 D15 D20 D23 D27 D30 D34 D37 D40 D45 D50 D55 D58 D61 D63:D800">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
   </dataValidations>
